--- a/Docs/Requirements/importFromExcelTemplate/校区.xlsx
+++ b/Docs/Requirements/importFromExcelTemplate/校区.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>描述</t>
   </si>
@@ -30,9 +35,6 @@
     <t>市</t>
   </si>
   <si>
-    <t>学校名</t>
-  </si>
-  <si>
     <t>校长</t>
   </si>
   <si>
@@ -48,9 +50,6 @@
     <t>天极海淀分校</t>
   </si>
   <si>
-    <t>北京天极中学</t>
-  </si>
-  <si>
     <t>艾娇宇</t>
   </si>
   <si>
@@ -67,17 +66,35 @@
   </si>
   <si>
     <t>天极教育集团</t>
+  </si>
+  <si>
+    <t>笔记得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北旺学区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -106,7 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,108 +414,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
+      <c r="J2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>